--- a/data/words.xlsx
+++ b/data/words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
   <si>
     <t>Word</t>
   </si>
@@ -25,49 +25,904 @@
     <t>Example Sentence</t>
   </si>
   <si>
-    <t>apple</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>egg</t>
-  </si>
-  <si>
-    <t>تفاحة</t>
-  </si>
-  <si>
-    <t>كتاب</t>
-  </si>
-  <si>
-    <t>سيارة</t>
-  </si>
-  <si>
-    <t>كلب</t>
-  </si>
-  <si>
-    <t>بيضة</t>
-  </si>
-  <si>
-    <t>I eat an apple every morning - آكل تفاحة كل صباح</t>
-  </si>
-  <si>
-    <t>I read a book before bed - أقرأ كتابًا قبل النوم</t>
-  </si>
-  <si>
-    <t>I drive my car to work - أقود سيارتي إلى العمل</t>
-  </si>
-  <si>
-    <t>The dog is barking outside - الكلب ينبح بالخارج</t>
-  </si>
-  <si>
-    <t>She cooked an egg for breakfast - طبخت بيضة للفطور</t>
+    <t>chair</t>
+  </si>
+  <si>
+    <t>computer</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>pen</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>battery</t>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>engine</t>
+  </si>
+  <si>
+    <t>wrench</t>
+  </si>
+  <si>
+    <t>wire</t>
+  </si>
+  <si>
+    <t>circuit</t>
+  </si>
+  <si>
+    <t>plumbing</t>
+  </si>
+  <si>
+    <t>socket</t>
+  </si>
+  <si>
+    <t>word_20</t>
+  </si>
+  <si>
+    <t>word_21</t>
+  </si>
+  <si>
+    <t>word_22</t>
+  </si>
+  <si>
+    <t>word_23</t>
+  </si>
+  <si>
+    <t>word_24</t>
+  </si>
+  <si>
+    <t>word_25</t>
+  </si>
+  <si>
+    <t>word_26</t>
+  </si>
+  <si>
+    <t>word_27</t>
+  </si>
+  <si>
+    <t>word_28</t>
+  </si>
+  <si>
+    <t>word_29</t>
+  </si>
+  <si>
+    <t>word_30</t>
+  </si>
+  <si>
+    <t>word_31</t>
+  </si>
+  <si>
+    <t>word_32</t>
+  </si>
+  <si>
+    <t>word_33</t>
+  </si>
+  <si>
+    <t>word_34</t>
+  </si>
+  <si>
+    <t>word_35</t>
+  </si>
+  <si>
+    <t>word_36</t>
+  </si>
+  <si>
+    <t>word_37</t>
+  </si>
+  <si>
+    <t>word_38</t>
+  </si>
+  <si>
+    <t>word_39</t>
+  </si>
+  <si>
+    <t>word_40</t>
+  </si>
+  <si>
+    <t>word_41</t>
+  </si>
+  <si>
+    <t>word_42</t>
+  </si>
+  <si>
+    <t>word_43</t>
+  </si>
+  <si>
+    <t>word_44</t>
+  </si>
+  <si>
+    <t>word_45</t>
+  </si>
+  <si>
+    <t>word_46</t>
+  </si>
+  <si>
+    <t>word_47</t>
+  </si>
+  <si>
+    <t>word_48</t>
+  </si>
+  <si>
+    <t>word_49</t>
+  </si>
+  <si>
+    <t>word_50</t>
+  </si>
+  <si>
+    <t>word_51</t>
+  </si>
+  <si>
+    <t>word_52</t>
+  </si>
+  <si>
+    <t>word_53</t>
+  </si>
+  <si>
+    <t>word_54</t>
+  </si>
+  <si>
+    <t>word_55</t>
+  </si>
+  <si>
+    <t>word_56</t>
+  </si>
+  <si>
+    <t>word_57</t>
+  </si>
+  <si>
+    <t>word_58</t>
+  </si>
+  <si>
+    <t>word_59</t>
+  </si>
+  <si>
+    <t>word_60</t>
+  </si>
+  <si>
+    <t>word_61</t>
+  </si>
+  <si>
+    <t>word_62</t>
+  </si>
+  <si>
+    <t>word_63</t>
+  </si>
+  <si>
+    <t>word_64</t>
+  </si>
+  <si>
+    <t>word_65</t>
+  </si>
+  <si>
+    <t>word_66</t>
+  </si>
+  <si>
+    <t>word_67</t>
+  </si>
+  <si>
+    <t>word_68</t>
+  </si>
+  <si>
+    <t>word_69</t>
+  </si>
+  <si>
+    <t>word_70</t>
+  </si>
+  <si>
+    <t>word_71</t>
+  </si>
+  <si>
+    <t>word_72</t>
+  </si>
+  <si>
+    <t>word_73</t>
+  </si>
+  <si>
+    <t>word_74</t>
+  </si>
+  <si>
+    <t>word_75</t>
+  </si>
+  <si>
+    <t>word_76</t>
+  </si>
+  <si>
+    <t>word_77</t>
+  </si>
+  <si>
+    <t>word_78</t>
+  </si>
+  <si>
+    <t>word_79</t>
+  </si>
+  <si>
+    <t>word_80</t>
+  </si>
+  <si>
+    <t>word_81</t>
+  </si>
+  <si>
+    <t>word_82</t>
+  </si>
+  <si>
+    <t>word_83</t>
+  </si>
+  <si>
+    <t>word_84</t>
+  </si>
+  <si>
+    <t>word_85</t>
+  </si>
+  <si>
+    <t>word_86</t>
+  </si>
+  <si>
+    <t>word_87</t>
+  </si>
+  <si>
+    <t>word_88</t>
+  </si>
+  <si>
+    <t>word_89</t>
+  </si>
+  <si>
+    <t>word_90</t>
+  </si>
+  <si>
+    <t>word_91</t>
+  </si>
+  <si>
+    <t>word_92</t>
+  </si>
+  <si>
+    <t>word_93</t>
+  </si>
+  <si>
+    <t>word_94</t>
+  </si>
+  <si>
+    <t>word_95</t>
+  </si>
+  <si>
+    <t>word_96</t>
+  </si>
+  <si>
+    <t>word_97</t>
+  </si>
+  <si>
+    <t>word_98</t>
+  </si>
+  <si>
+    <t>word_99</t>
+  </si>
+  <si>
+    <t>كرسي</t>
+  </si>
+  <si>
+    <t>حاسوب</t>
+  </si>
+  <si>
+    <t>طاولة</t>
+  </si>
+  <si>
+    <t>قلم</t>
+  </si>
+  <si>
+    <t>هاتف</t>
+  </si>
+  <si>
+    <t>قطار</t>
+  </si>
+  <si>
+    <t>مشروع</t>
+  </si>
+  <si>
+    <t>ملف</t>
+  </si>
+  <si>
+    <t>أداة</t>
+  </si>
+  <si>
+    <t>آلة</t>
+  </si>
+  <si>
+    <t>كهرباء</t>
+  </si>
+  <si>
+    <t>بطارية</t>
+  </si>
+  <si>
+    <t>معلم</t>
+  </si>
+  <si>
+    <t>طالب</t>
+  </si>
+  <si>
+    <t>محرك</t>
+  </si>
+  <si>
+    <t>مفتاح ربط</t>
+  </si>
+  <si>
+    <t>سلك</t>
+  </si>
+  <si>
+    <t>دائرة كهربائية</t>
+  </si>
+  <si>
+    <t>سباكة</t>
+  </si>
+  <si>
+    <t>مقبس</t>
+  </si>
+  <si>
+    <t>ترجمة_20</t>
+  </si>
+  <si>
+    <t>ترجمة_21</t>
+  </si>
+  <si>
+    <t>ترجمة_22</t>
+  </si>
+  <si>
+    <t>ترجمة_23</t>
+  </si>
+  <si>
+    <t>ترجمة_24</t>
+  </si>
+  <si>
+    <t>ترجمة_25</t>
+  </si>
+  <si>
+    <t>ترجمة_26</t>
+  </si>
+  <si>
+    <t>ترجمة_27</t>
+  </si>
+  <si>
+    <t>ترجمة_28</t>
+  </si>
+  <si>
+    <t>ترجمة_29</t>
+  </si>
+  <si>
+    <t>ترجمة_30</t>
+  </si>
+  <si>
+    <t>ترجمة_31</t>
+  </si>
+  <si>
+    <t>ترجمة_32</t>
+  </si>
+  <si>
+    <t>ترجمة_33</t>
+  </si>
+  <si>
+    <t>ترجمة_34</t>
+  </si>
+  <si>
+    <t>ترجمة_35</t>
+  </si>
+  <si>
+    <t>ترجمة_36</t>
+  </si>
+  <si>
+    <t>ترجمة_37</t>
+  </si>
+  <si>
+    <t>ترجمة_38</t>
+  </si>
+  <si>
+    <t>ترجمة_39</t>
+  </si>
+  <si>
+    <t>ترجمة_40</t>
+  </si>
+  <si>
+    <t>ترجمة_41</t>
+  </si>
+  <si>
+    <t>ترجمة_42</t>
+  </si>
+  <si>
+    <t>ترجمة_43</t>
+  </si>
+  <si>
+    <t>ترجمة_44</t>
+  </si>
+  <si>
+    <t>ترجمة_45</t>
+  </si>
+  <si>
+    <t>ترجمة_46</t>
+  </si>
+  <si>
+    <t>ترجمة_47</t>
+  </si>
+  <si>
+    <t>ترجمة_48</t>
+  </si>
+  <si>
+    <t>ترجمة_49</t>
+  </si>
+  <si>
+    <t>ترجمة_50</t>
+  </si>
+  <si>
+    <t>ترجمة_51</t>
+  </si>
+  <si>
+    <t>ترجمة_52</t>
+  </si>
+  <si>
+    <t>ترجمة_53</t>
+  </si>
+  <si>
+    <t>ترجمة_54</t>
+  </si>
+  <si>
+    <t>ترجمة_55</t>
+  </si>
+  <si>
+    <t>ترجمة_56</t>
+  </si>
+  <si>
+    <t>ترجمة_57</t>
+  </si>
+  <si>
+    <t>ترجمة_58</t>
+  </si>
+  <si>
+    <t>ترجمة_59</t>
+  </si>
+  <si>
+    <t>ترجمة_60</t>
+  </si>
+  <si>
+    <t>ترجمة_61</t>
+  </si>
+  <si>
+    <t>ترجمة_62</t>
+  </si>
+  <si>
+    <t>ترجمة_63</t>
+  </si>
+  <si>
+    <t>ترجمة_64</t>
+  </si>
+  <si>
+    <t>ترجمة_65</t>
+  </si>
+  <si>
+    <t>ترجمة_66</t>
+  </si>
+  <si>
+    <t>ترجمة_67</t>
+  </si>
+  <si>
+    <t>ترجمة_68</t>
+  </si>
+  <si>
+    <t>ترجمة_69</t>
+  </si>
+  <si>
+    <t>ترجمة_70</t>
+  </si>
+  <si>
+    <t>ترجمة_71</t>
+  </si>
+  <si>
+    <t>ترجمة_72</t>
+  </si>
+  <si>
+    <t>ترجمة_73</t>
+  </si>
+  <si>
+    <t>ترجمة_74</t>
+  </si>
+  <si>
+    <t>ترجمة_75</t>
+  </si>
+  <si>
+    <t>ترجمة_76</t>
+  </si>
+  <si>
+    <t>ترجمة_77</t>
+  </si>
+  <si>
+    <t>ترجمة_78</t>
+  </si>
+  <si>
+    <t>ترجمة_79</t>
+  </si>
+  <si>
+    <t>ترجمة_80</t>
+  </si>
+  <si>
+    <t>ترجمة_81</t>
+  </si>
+  <si>
+    <t>ترجمة_82</t>
+  </si>
+  <si>
+    <t>ترجمة_83</t>
+  </si>
+  <si>
+    <t>ترجمة_84</t>
+  </si>
+  <si>
+    <t>ترجمة_85</t>
+  </si>
+  <si>
+    <t>ترجمة_86</t>
+  </si>
+  <si>
+    <t>ترجمة_87</t>
+  </si>
+  <si>
+    <t>ترجمة_88</t>
+  </si>
+  <si>
+    <t>ترجمة_89</t>
+  </si>
+  <si>
+    <t>ترجمة_90</t>
+  </si>
+  <si>
+    <t>ترجمة_91</t>
+  </si>
+  <si>
+    <t>ترجمة_92</t>
+  </si>
+  <si>
+    <t>ترجمة_93</t>
+  </si>
+  <si>
+    <t>ترجمة_94</t>
+  </si>
+  <si>
+    <t>ترجمة_95</t>
+  </si>
+  <si>
+    <t>ترجمة_96</t>
+  </si>
+  <si>
+    <t>ترجمة_97</t>
+  </si>
+  <si>
+    <t>ترجمة_98</t>
+  </si>
+  <si>
+    <t>ترجمة_99</t>
+  </si>
+  <si>
+    <t>She sat on the chair - جلست على الكرسي</t>
+  </si>
+  <si>
+    <t>He uses a computer for work - يستخدم الحاسوب للعمل</t>
+  </si>
+  <si>
+    <t>The table is made of wood - الطاولة مصنوعة من الخشب</t>
+  </si>
+  <si>
+    <t>She wrote with a pen - كتبت بالقلم</t>
+  </si>
+  <si>
+    <t>I called him on the phone - اتصلت به عبر الهاتف</t>
+  </si>
+  <si>
+    <t>The train is arriving at the station - القطار يصل إلى المحطة</t>
+  </si>
+  <si>
+    <t>We are working on a new project - نحن نعمل على مشروع جديد</t>
+  </si>
+  <si>
+    <t>Please upload the file - يرجى رفع الملف</t>
+  </si>
+  <si>
+    <t>A hammer is a useful tool - المطرقة أداة مفيدة</t>
+  </si>
+  <si>
+    <t>The machine is broken - الآلة معطلة</t>
+  </si>
+  <si>
+    <t>The electricity is off - الكهرباء مقطوعة</t>
+  </si>
+  <si>
+    <t>The battery is dead - البطارية فارغة</t>
+  </si>
+  <si>
+    <t>The teacher is explaining the lesson - المعلم يشرح الدرس</t>
+  </si>
+  <si>
+    <t>The student is studying hard - الطالب يدرس بجد</t>
+  </si>
+  <si>
+    <t>The engine needs repair - المحرك يحتاج إلى إصلاح</t>
+  </si>
+  <si>
+    <t>He used a wrench to fix the pipe - استخدم مفتاح الربط لإصلاح الأنبوب</t>
+  </si>
+  <si>
+    <t>The wire is too short - السلك قصير جدًا</t>
+  </si>
+  <si>
+    <t>The circuit is complete - الدائرة الكهربائية مكتملة</t>
+  </si>
+  <si>
+    <t>The plumbing system is old - نظام السباكة قديم</t>
+  </si>
+  <si>
+    <t>Plug the cable into the socket - قم بتوصيل الكابل في المقبس</t>
+  </si>
+  <si>
+    <t>Example sentence for word_20 - جملة توضيحية للكلمة 20</t>
+  </si>
+  <si>
+    <t>Example sentence for word_21 - جملة توضيحية للكلمة 21</t>
+  </si>
+  <si>
+    <t>Example sentence for word_22 - جملة توضيحية للكلمة 22</t>
+  </si>
+  <si>
+    <t>Example sentence for word_23 - جملة توضيحية للكلمة 23</t>
+  </si>
+  <si>
+    <t>Example sentence for word_24 - جملة توضيحية للكلمة 24</t>
+  </si>
+  <si>
+    <t>Example sentence for word_25 - جملة توضيحية للكلمة 25</t>
+  </si>
+  <si>
+    <t>Example sentence for word_26 - جملة توضيحية للكلمة 26</t>
+  </si>
+  <si>
+    <t>Example sentence for word_27 - جملة توضيحية للكلمة 27</t>
+  </si>
+  <si>
+    <t>Example sentence for word_28 - جملة توضيحية للكلمة 28</t>
+  </si>
+  <si>
+    <t>Example sentence for word_29 - جملة توضيحية للكلمة 29</t>
+  </si>
+  <si>
+    <t>Example sentence for word_30 - جملة توضيحية للكلمة 30</t>
+  </si>
+  <si>
+    <t>Example sentence for word_31 - جملة توضيحية للكلمة 31</t>
+  </si>
+  <si>
+    <t>Example sentence for word_32 - جملة توضيحية للكلمة 32</t>
+  </si>
+  <si>
+    <t>Example sentence for word_33 - جملة توضيحية للكلمة 33</t>
+  </si>
+  <si>
+    <t>Example sentence for word_34 - جملة توضيحية للكلمة 34</t>
+  </si>
+  <si>
+    <t>Example sentence for word_35 - جملة توضيحية للكلمة 35</t>
+  </si>
+  <si>
+    <t>Example sentence for word_36 - جملة توضيحية للكلمة 36</t>
+  </si>
+  <si>
+    <t>Example sentence for word_37 - جملة توضيحية للكلمة 37</t>
+  </si>
+  <si>
+    <t>Example sentence for word_38 - جملة توضيحية للكلمة 38</t>
+  </si>
+  <si>
+    <t>Example sentence for word_39 - جملة توضيحية للكلمة 39</t>
+  </si>
+  <si>
+    <t>Example sentence for word_40 - جملة توضيحية للكلمة 40</t>
+  </si>
+  <si>
+    <t>Example sentence for word_41 - جملة توضيحية للكلمة 41</t>
+  </si>
+  <si>
+    <t>Example sentence for word_42 - جملة توضيحية للكلمة 42</t>
+  </si>
+  <si>
+    <t>Example sentence for word_43 - جملة توضيحية للكلمة 43</t>
+  </si>
+  <si>
+    <t>Example sentence for word_44 - جملة توضيحية للكلمة 44</t>
+  </si>
+  <si>
+    <t>Example sentence for word_45 - جملة توضيحية للكلمة 45</t>
+  </si>
+  <si>
+    <t>Example sentence for word_46 - جملة توضيحية للكلمة 46</t>
+  </si>
+  <si>
+    <t>Example sentence for word_47 - جملة توضيحية للكلمة 47</t>
+  </si>
+  <si>
+    <t>Example sentence for word_48 - جملة توضيحية للكلمة 48</t>
+  </si>
+  <si>
+    <t>Example sentence for word_49 - جملة توضيحية للكلمة 49</t>
+  </si>
+  <si>
+    <t>Example sentence for word_50 - جملة توضيحية للكلمة 50</t>
+  </si>
+  <si>
+    <t>Example sentence for word_51 - جملة توضيحية للكلمة 51</t>
+  </si>
+  <si>
+    <t>Example sentence for word_52 - جملة توضيحية للكلمة 52</t>
+  </si>
+  <si>
+    <t>Example sentence for word_53 - جملة توضيحية للكلمة 53</t>
+  </si>
+  <si>
+    <t>Example sentence for word_54 - جملة توضيحية للكلمة 54</t>
+  </si>
+  <si>
+    <t>Example sentence for word_55 - جملة توضيحية للكلمة 55</t>
+  </si>
+  <si>
+    <t>Example sentence for word_56 - جملة توضيحية للكلمة 56</t>
+  </si>
+  <si>
+    <t>Example sentence for word_57 - جملة توضيحية للكلمة 57</t>
+  </si>
+  <si>
+    <t>Example sentence for word_58 - جملة توضيحية للكلمة 58</t>
+  </si>
+  <si>
+    <t>Example sentence for word_59 - جملة توضيحية للكلمة 59</t>
+  </si>
+  <si>
+    <t>Example sentence for word_60 - جملة توضيحية للكلمة 60</t>
+  </si>
+  <si>
+    <t>Example sentence for word_61 - جملة توضيحية للكلمة 61</t>
+  </si>
+  <si>
+    <t>Example sentence for word_62 - جملة توضيحية للكلمة 62</t>
+  </si>
+  <si>
+    <t>Example sentence for word_63 - جملة توضيحية للكلمة 63</t>
+  </si>
+  <si>
+    <t>Example sentence for word_64 - جملة توضيحية للكلمة 64</t>
+  </si>
+  <si>
+    <t>Example sentence for word_65 - جملة توضيحية للكلمة 65</t>
+  </si>
+  <si>
+    <t>Example sentence for word_66 - جملة توضيحية للكلمة 66</t>
+  </si>
+  <si>
+    <t>Example sentence for word_67 - جملة توضيحية للكلمة 67</t>
+  </si>
+  <si>
+    <t>Example sentence for word_68 - جملة توضيحية للكلمة 68</t>
+  </si>
+  <si>
+    <t>Example sentence for word_69 - جملة توضيحية للكلمة 69</t>
+  </si>
+  <si>
+    <t>Example sentence for word_70 - جملة توضيحية للكلمة 70</t>
+  </si>
+  <si>
+    <t>Example sentence for word_71 - جملة توضيحية للكلمة 71</t>
+  </si>
+  <si>
+    <t>Example sentence for word_72 - جملة توضيحية للكلمة 72</t>
+  </si>
+  <si>
+    <t>Example sentence for word_73 - جملة توضيحية للكلمة 73</t>
+  </si>
+  <si>
+    <t>Example sentence for word_74 - جملة توضيحية للكلمة 74</t>
+  </si>
+  <si>
+    <t>Example sentence for word_75 - جملة توضيحية للكلمة 75</t>
+  </si>
+  <si>
+    <t>Example sentence for word_76 - جملة توضيحية للكلمة 76</t>
+  </si>
+  <si>
+    <t>Example sentence for word_77 - جملة توضيحية للكلمة 77</t>
+  </si>
+  <si>
+    <t>Example sentence for word_78 - جملة توضيحية للكلمة 78</t>
+  </si>
+  <si>
+    <t>Example sentence for word_79 - جملة توضيحية للكلمة 79</t>
+  </si>
+  <si>
+    <t>Example sentence for word_80 - جملة توضيحية للكلمة 80</t>
+  </si>
+  <si>
+    <t>Example sentence for word_81 - جملة توضيحية للكلمة 81</t>
+  </si>
+  <si>
+    <t>Example sentence for word_82 - جملة توضيحية للكلمة 82</t>
+  </si>
+  <si>
+    <t>Example sentence for word_83 - جملة توضيحية للكلمة 83</t>
+  </si>
+  <si>
+    <t>Example sentence for word_84 - جملة توضيحية للكلمة 84</t>
+  </si>
+  <si>
+    <t>Example sentence for word_85 - جملة توضيحية للكلمة 85</t>
+  </si>
+  <si>
+    <t>Example sentence for word_86 - جملة توضيحية للكلمة 86</t>
+  </si>
+  <si>
+    <t>Example sentence for word_87 - جملة توضيحية للكلمة 87</t>
+  </si>
+  <si>
+    <t>Example sentence for word_88 - جملة توضيحية للكلمة 88</t>
+  </si>
+  <si>
+    <t>Example sentence for word_89 - جملة توضيحية للكلمة 89</t>
+  </si>
+  <si>
+    <t>Example sentence for word_90 - جملة توضيحية للكلمة 90</t>
+  </si>
+  <si>
+    <t>Example sentence for word_91 - جملة توضيحية للكلمة 91</t>
+  </si>
+  <si>
+    <t>Example sentence for word_92 - جملة توضيحية للكلمة 92</t>
+  </si>
+  <si>
+    <t>Example sentence for word_93 - جملة توضيحية للكلمة 93</t>
+  </si>
+  <si>
+    <t>Example sentence for word_94 - جملة توضيحية للكلمة 94</t>
+  </si>
+  <si>
+    <t>Example sentence for word_95 - جملة توضيحية للكلمة 95</t>
+  </si>
+  <si>
+    <t>Example sentence for word_96 - جملة توضيحية للكلمة 96</t>
+  </si>
+  <si>
+    <t>Example sentence for word_97 - جملة توضيحية للكلمة 97</t>
+  </si>
+  <si>
+    <t>Example sentence for word_98 - جملة توضيحية للكلمة 98</t>
+  </si>
+  <si>
+    <t>Example sentence for word_99 - جملة توضيحية للكلمة 99</t>
   </si>
 </sst>
 </file>
@@ -425,7 +1280,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,10 +1302,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -458,10 +1313,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -469,10 +1324,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -480,10 +1335,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -491,10 +1346,1055 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>163</v>
+      </c>
+      <c r="C62" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>164</v>
+      </c>
+      <c r="C63" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>165</v>
+      </c>
+      <c r="C64" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>166</v>
+      </c>
+      <c r="C65" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>167</v>
+      </c>
+      <c r="C66" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>168</v>
+      </c>
+      <c r="C67" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>169</v>
+      </c>
+      <c r="C68" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>170</v>
+      </c>
+      <c r="C69" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>171</v>
+      </c>
+      <c r="C70" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>172</v>
+      </c>
+      <c r="C71" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>173</v>
+      </c>
+      <c r="C72" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>175</v>
+      </c>
+      <c r="C74" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>177</v>
+      </c>
+      <c r="C76" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>178</v>
+      </c>
+      <c r="C77" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" t="s">
+        <v>179</v>
+      </c>
+      <c r="C78" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" t="s">
+        <v>180</v>
+      </c>
+      <c r="C79" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" t="s">
+        <v>181</v>
+      </c>
+      <c r="C80" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" t="s">
+        <v>182</v>
+      </c>
+      <c r="C81" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>183</v>
+      </c>
+      <c r="C82" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s">
+        <v>184</v>
+      </c>
+      <c r="C83" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>185</v>
+      </c>
+      <c r="C84" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" t="s">
+        <v>186</v>
+      </c>
+      <c r="C85" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" t="s">
+        <v>187</v>
+      </c>
+      <c r="C86" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" t="s">
+        <v>188</v>
+      </c>
+      <c r="C87" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" t="s">
+        <v>189</v>
+      </c>
+      <c r="C88" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" t="s">
+        <v>190</v>
+      </c>
+      <c r="C89" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" t="s">
+        <v>191</v>
+      </c>
+      <c r="C90" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" t="s">
+        <v>192</v>
+      </c>
+      <c r="C91" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
+        <v>193</v>
+      </c>
+      <c r="C92" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" t="s">
+        <v>194</v>
+      </c>
+      <c r="C93" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" t="s">
+        <v>195</v>
+      </c>
+      <c r="C94" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" t="s">
+        <v>196</v>
+      </c>
+      <c r="C95" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" t="s">
+        <v>197</v>
+      </c>
+      <c r="C96" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" t="s">
+        <v>198</v>
+      </c>
+      <c r="C97" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" t="s">
+        <v>199</v>
+      </c>
+      <c r="C98" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" t="s">
+        <v>200</v>
+      </c>
+      <c r="C99" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" t="s">
+        <v>202</v>
+      </c>
+      <c r="C101" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
